--- a/biology/Botanique/Chèvrefeuille_de_Morrow/Chèvrefeuille_de_Morrow.xlsx
+++ b/biology/Botanique/Chèvrefeuille_de_Morrow/Chèvrefeuille_de_Morrow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Morrow</t>
+          <t>Chèvrefeuille_de_Morrow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera  morrowii,  en anglais Morrow's Honeysuckle est une espèce de chèvrefeuille, arbustes de la famille des caprifoliacées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Morrow</t>
+          <t>Chèvrefeuille_de_Morrow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C' est un arbuste haut de 2 à 2,5 mètres.
 Ses feuilles sont longues de 6 à 8 cm.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Morrow</t>
+          <t>Chèvrefeuille_de_Morrow</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera subspicata est originaire d'une partie de l'Asie, Japon, Corée et Mandchourie.
 C'est une espèce invasive en Amérique-du-Nord.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Morrow</t>
+          <t>Chèvrefeuille_de_Morrow</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
